--- a/SlabBackendTeszt.xlsx
+++ b/SlabBackendTeszt.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
-    <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t xml:space="preserve">API neve: </t>
   </si>
@@ -133,12 +131,21 @@
   <si>
     <t>"-||-" (helytelen mert ilyen id-jű harcos nem létezik)</t>
   </si>
+  <si>
+    <t>Egy bizonyos id-jű harcos megtekintése (rosszul megadott id)</t>
+  </si>
+  <si>
+    <t>Egy bizonyos id-jű harcos megtekintése (nem létező id)</t>
+  </si>
+  <si>
+    <t>localhost:8080/fighters/ac</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,15 +181,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -401,11 +399,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,73 +485,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="125.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -800,280 +914,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8" t="s">
-        <v>30</v>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8" t="s">
-        <v>31</v>
+      <c r="E9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="13" spans="1:9" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="125.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="125.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>